--- a/Backend/mysql/주류쇼핑몰 DB.xlsx
+++ b/Backend/mysql/주류쇼핑몰 DB.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woals\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woals\OneDrive\문서\GitHub\Study\Mini\MiniProject2\Backend\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35DBF4F-3C44-443B-B0F6-2175C5BF8A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044C6B3-CBA0-4F2F-8C4F-A7BC7C5E3587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" xr2:uid="{BC5F3E98-FE40-4DFC-9A4B-6AE1C3FFA7D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{BC5F3E98-FE40-4DFC-9A4B-6AE1C3FFA7D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="원본" sheetId="1" r:id="rId1"/>
+    <sheet name="확정" sheetId="2" r:id="rId2"/>
+    <sheet name="표정리" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="192">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -431,6 +433,481 @@
   </si>
   <si>
     <t>주류 1, 안주 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 넘버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pur2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매유형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>odiv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완료 1, 구매확인 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 이미지 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열 이름</t>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+  </si>
+  <si>
+    <t>기본값</t>
+  </si>
+  <si>
+    <t>제약 조건</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>cno</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>NOT NULL, AUTO_INCREMENT, PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>장바구니 번호</t>
+  </si>
+  <si>
+    <t>pno</t>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT NULL, FOREIGN KEY (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>pno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) REFERENCES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>pno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>) ON DELETE SET NULL ON UPDATE CASCADE</t>
+    </r>
+  </si>
+  <si>
+    <t>상품 번호</t>
+  </si>
+  <si>
+    <t>pname</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+  </si>
+  <si>
+    <t>상품 이름</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT NULL, FOREIGN KEY (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>mid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) REFERENCES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>member</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>mid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>) ON DELETE SET NULL ON UPDATE CASCADE</t>
+    </r>
+  </si>
+  <si>
+    <t>회원 ID</t>
+  </si>
+  <si>
+    <t>pprice</t>
+  </si>
+  <si>
+    <t>상품 가격</t>
+  </si>
+  <si>
+    <t>장바구니 수량</t>
+  </si>
+  <si>
+    <t>장바구니 총 가격</t>
+  </si>
+  <si>
+    <t>NOT NULL, PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>mpw</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>회원 비밀번호</t>
+  </si>
+  <si>
+    <t>mname</t>
+  </si>
+  <si>
+    <t>회원 이름</t>
+  </si>
+  <si>
+    <t>mbirth</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>회원 생년월일</t>
+  </si>
+  <si>
+    <t>mphone</t>
+  </si>
+  <si>
+    <t>회원 전화번호</t>
+  </si>
+  <si>
+    <t>madress</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+  </si>
+  <si>
+    <t>회원 주소</t>
+  </si>
+  <si>
+    <t>회원 직책</t>
+  </si>
+  <si>
+    <t>mdiv</t>
+  </si>
+  <si>
+    <r>
+      <t>CHECK (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>mdiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in (1,2))</t>
+    </r>
+  </si>
+  <si>
+    <t>회원 구분 (1 또는 2)</t>
+  </si>
+  <si>
+    <t>ono</t>
+  </si>
+  <si>
+    <t>주문 번호</t>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT NULL, FOREIGN KEY (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) REFERENCES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>) ON DELETE SET NULL ON UPDATE CASCADE</t>
+    </r>
+  </si>
+  <si>
+    <t>otext</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>주문 텍스트</t>
+  </si>
+  <si>
+    <t>opay</t>
+  </si>
+  <si>
+    <t>주문 결제 방법</t>
+  </si>
+  <si>
+    <t>otime</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>NULL, DEFAULT CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>주문 시간</t>
+  </si>
+  <si>
+    <t>odiv</t>
+  </si>
+  <si>
+    <t>DEFAULT '1'</t>
+  </si>
+  <si>
+    <t>주문 구분 (1)</t>
+  </si>
+  <si>
+    <t>pcategory</t>
+  </si>
+  <si>
+    <t>상품 카테고리</t>
+  </si>
+  <si>
+    <t>상품 수량</t>
+  </si>
+  <si>
+    <t>pml</t>
+  </si>
+  <si>
+    <t>상품 용량 (밀리리터)</t>
+  </si>
+  <si>
+    <t>palcohol</t>
+  </si>
+  <si>
+    <t>decimal(3,1)</t>
+  </si>
+  <si>
+    <t>알코올 도수</t>
+  </si>
+  <si>
+    <t>pcountry</t>
+  </si>
+  <si>
+    <t>원산지</t>
+  </si>
+  <si>
+    <t>ptext</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>상품 설명</t>
+  </si>
+  <si>
+    <t>purl</t>
+  </si>
+  <si>
+    <t>상품 이미지 URL</t>
+  </si>
+  <si>
+    <t>purl2</t>
+  </si>
+  <si>
+    <t>상품 추가 이미지 URL</t>
+  </si>
+  <si>
+    <t>pdiv</t>
+  </si>
+  <si>
+    <t>상품 구분</t>
+  </si>
+  <si>
+    <t>rno</t>
+  </si>
+  <si>
+    <t>리뷰 번호</t>
+  </si>
+  <si>
+    <t>rtext</t>
+  </si>
+  <si>
+    <t>리뷰 텍스트</t>
+  </si>
+  <si>
+    <t>rtime</t>
+  </si>
+  <si>
+    <t>리뷰 작성 시간</t>
+  </si>
+  <si>
+    <t>member</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,16 +956,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -631,13 +1132,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +1263,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,6 +1279,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,60 +1612,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5590FC8F-3F90-42A4-880D-F83A83017460}">
   <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:V39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="10.9375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="15.9375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="13.4375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.6">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="13"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.6">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1771,7 @@
       </c>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1815,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1855,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1893,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +1931,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1969,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1385,7 +2001,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1417,7 +2033,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +2067,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1479,7 +2095,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1507,7 +2123,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1535,7 +2151,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1563,7 +2179,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1579,34 +2195,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.6">
-      <c r="B21" s="11" t="s">
+    <row r="20" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="I21" s="11" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
-      <c r="P21" s="11" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+      <c r="P21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.6">
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +2278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1712,7 +2328,7 @@
       </c>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
@@ -1756,7 +2372,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
@@ -1800,7 +2416,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1842,7 +2458,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>62</v>
       </c>
@@ -1884,7 +2500,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
@@ -1918,7 +2534,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
@@ -1952,7 +2568,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1980,7 +2596,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2008,7 +2624,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2036,7 +2652,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2062,7 +2678,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2088,7 +2704,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2116,7 +2732,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2154,4 +2770,2238 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C7464F-6774-4145-99FE-3CE227CA3239}">
+  <dimension ref="A1:V39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="14" max="14" width="23.875" customWidth="1"/>
+    <col min="16" max="16" width="18.125" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="P21:U21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B0A4E6-C538-47AE-9BF0-9A00F55626FF}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="100.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="86.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="100.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="G10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="M15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="M16" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="M17" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="19">
+        <v>1</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="114.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="114.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:17" ht="100.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>